--- a/Input/InputFiles/input.xlsx
+++ b/Input/InputFiles/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -213,6 +213,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,6 +265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,23 +461,23 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -466,25 +500,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
@@ -492,7 +529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -503,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -511,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -519,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -530,17 +567,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -548,7 +585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -556,12 +593,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>

--- a/Input/InputFiles/input.xlsx
+++ b/Input/InputFiles/input.xlsx
@@ -89,6 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -461,7 +465,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +473,7 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -481,7 +485,7 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
@@ -519,8 +523,8 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>30</v>
+      <c r="D5" s="1">
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -608,5 +612,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>